--- a/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/1_FinalExam/Problem1.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/1_FinalExam/Problem1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A75F6-5468-422C-A672-FB93B7C977AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>W</t>
   </si>
@@ -181,12 +187,18 @@
   <si>
     <t>Total dP [mPa]</t>
   </si>
+  <si>
+    <t>Viscosity resin 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +216,21 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -240,9 +267,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,9 +292,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -313,6 +344,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -613,7 +664,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6403-474E-B19A-9033241FB880}"/>
             </c:ext>
@@ -902,7 +953,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6403-474E-B19A-9033241FB880}"/>
             </c:ext>
@@ -916,11 +967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98095488"/>
-        <c:axId val="98097792"/>
+        <c:axId val="75440128"/>
+        <c:axId val="111123456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98095488"/>
+        <c:axId val="75440128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -980,6 +1031,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1015,15 +1086,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98097792"/>
+        <c:crossAx val="111123456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98097792"/>
+        <c:axId val="111123456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1079,6 +1150,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1114,10 +1205,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98095488"/>
+        <c:crossAx val="75440128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,20 +1247,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1193,7 +1284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1205,9 +1296,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1244,7 +1335,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1335,7 +1426,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1587,7 +1678,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDCB-46C0-8455-360D2A6168FC}"/>
             </c:ext>
@@ -1674,7 +1765,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1926,7 +2017,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDCB-46C0-8455-360D2A6168FC}"/>
             </c:ext>
@@ -1940,11 +2031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98159232"/>
-        <c:axId val="98169600"/>
+        <c:axId val="65221376"/>
+        <c:axId val="65223296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98159232"/>
+        <c:axId val="65221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,6 +2094,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2038,15 +2149,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98169600"/>
+        <c:crossAx val="65223296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98169600"/>
+        <c:axId val="65223296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2101,6 +2212,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2136,10 +2267,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98159232"/>
+        <c:crossAx val="65221376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2186,20 +2317,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2223,7 +2354,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2235,9 +2366,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2255,21 +2386,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>dP vs Filling time</a:t>
             </a:r>
-            <a:endParaRPr lang="es-MX">
+            <a:endParaRPr lang="es-MX" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2389,96 +2519,101 @@
             <c:numRef>
               <c:f>Sheet1!$V$2:$V$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>124617.1161763425</c:v>
+                  <c:v>9042.4324840614026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44673.841933416108</c:v>
+                  <c:v>4521.2162420307013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24515.358009343745</c:v>
+                  <c:v>3014.1441613538013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16015.072522362889</c:v>
+                  <c:v>2260.6081210153507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11510.709415094154</c:v>
+                  <c:v>1808.4864968122811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8788.4815686213278</c:v>
+                  <c:v>1507.0720806769007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6995.7228810027573</c:v>
+                  <c:v>1291.7760691516291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5741.224322699085</c:v>
+                  <c:v>1130.3040605076753</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4822.7947874819301</c:v>
+                  <c:v>1004.714720451267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4126.4605435398644</c:v>
+                  <c:v>904.24324840614054</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1479.2899380348078</c:v>
+                  <c:v>452.12162420307027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>811.77979911812213</c:v>
+                  <c:v>301.41441613538018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>530.30889249550523</c:v>
+                  <c:v>226.06081210153513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>381.15541176803475</c:v>
+                  <c:v>180.8486496812281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>291.01397579466629</c:v>
+                  <c:v>150.70720806769009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>231.65015631678668</c:v>
+                  <c:v>129.1776069151629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>190.10980486584776</c:v>
+                  <c:v>113.03040605076757</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159.69774466592855</c:v>
+                  <c:v>100.47147204512672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.63995075360179</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48.983893617937866</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.880555527889619</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.560177830422749</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.621241895790815</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6363784171995448</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6706576052795103</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.2951272890064729</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.2880893289469419</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.5245740132366183</c:v>
+                  <c:v>90.424324840614048</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>45.212162420307024</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>30.141441613538014</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>22.606081210153512</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>18.084864968122808</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>15.070720806769007</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>12.917760691516293</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>11.303040605076756</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>10.047147204512672</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>9.0424324840614041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42D4-4353-B621-77E811B7400C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2488,13 +2623,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99772672"/>
-        <c:axId val="99787136"/>
+        <c:axId val="76077312"/>
+        <c:axId val="76075392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99772672"/>
+        <c:axId val="76077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2505,36 +2641,35 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES" sz="1200">
+                  <a:rPr lang="es-ES" sz="1200" b="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Filling time, t[s]</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX" sz="1200">
+                <a:endParaRPr lang="es-MX" sz="1200" b="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99787136"/>
+        <c:crossAx val="76075392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99787136"/>
+        <c:axId val="76075392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2547,37 +2682,43 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES" sz="1200">
+                  <a:rPr lang="es-ES" sz="1200" b="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Filling pressure,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-ES" sz="1200" baseline="0">
+                  <a:rPr lang="es-ES" sz="1200" b="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t> dP [MPa]</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX" sz="1200">
+                <a:endParaRPr lang="es-MX" sz="1200" b="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99772672"/>
+        <c:crossAx val="76077312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2592,9 +2733,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2612,21 +2753,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>dP vs Filling time (log)</a:t>
             </a:r>
-            <a:endParaRPr lang="es-MX">
+            <a:endParaRPr lang="es-MX" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2656,8 +2796,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4736220472440944E-2"/>
-                  <c:y val="-0.27677602799650042"/>
+                  <c:x val="-4.1650696307652998E-3"/>
+                  <c:y val="-0.45021771122540316"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2760,96 +2900,101 @@
             <c:numRef>
               <c:f>Sheet1!$V$2:$V$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>124617.1161763425</c:v>
+                  <c:v>9042.4324840614026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44673.841933416108</c:v>
+                  <c:v>4521.2162420307013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24515.358009343745</c:v>
+                  <c:v>3014.1441613538013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16015.072522362889</c:v>
+                  <c:v>2260.6081210153507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11510.709415094154</c:v>
+                  <c:v>1808.4864968122811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8788.4815686213278</c:v>
+                  <c:v>1507.0720806769007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6995.7228810027573</c:v>
+                  <c:v>1291.7760691516291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5741.224322699085</c:v>
+                  <c:v>1130.3040605076753</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4822.7947874819301</c:v>
+                  <c:v>1004.714720451267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4126.4605435398644</c:v>
+                  <c:v>904.24324840614054</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1479.2899380348078</c:v>
+                  <c:v>452.12162420307027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>811.77979911812213</c:v>
+                  <c:v>301.41441613538018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>530.30889249550523</c:v>
+                  <c:v>226.06081210153513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>381.15541176803475</c:v>
+                  <c:v>180.8486496812281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>291.01397579466629</c:v>
+                  <c:v>150.70720806769009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>231.65015631678668</c:v>
+                  <c:v>129.1776069151629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>190.10980486584776</c:v>
+                  <c:v>113.03040605076757</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159.69774466592855</c:v>
+                  <c:v>100.47147204512672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.63995075360179</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48.983893617937866</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.880555527889619</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.560177830422749</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.621241895790815</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6363784171995448</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6706576052795103</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.2951272890064729</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.2880893289469419</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.5245740132366183</c:v>
+                  <c:v>90.424324840614048</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>45.212162420307024</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>30.141441613538014</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>22.606081210153512</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>18.084864968122808</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>15.070720806769007</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>12.917760691516293</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>11.303040605076756</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>10.047147204512672</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>9.0424324840614041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23A4-4B25-ABB0-77B13B8A8D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2859,11 +3004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104801408"/>
-        <c:axId val="104803328"/>
+        <c:axId val="65100032"/>
+        <c:axId val="65098496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104801408"/>
+        <c:axId val="65100032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2879,37 +3024,36 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES" sz="1200" b="1" i="0" baseline="0">
+                  <a:rPr lang="es-ES" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Filling time, t[s]</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX" sz="1200">
+                <a:endParaRPr lang="es-MX" sz="1200" b="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104803328"/>
+        <c:crossAx val="65098496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104803328"/>
+        <c:axId val="65098496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="400"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2922,31 +3066,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES" sz="1200" b="1" i="0" baseline="0">
+                  <a:rPr lang="es-ES" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Filling pressure, dP [MPa]</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX" sz="1200">
+                <a:endParaRPr lang="es-MX" sz="1200" b="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104801408"/>
+        <c:crossAx val="65100032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4092,7 +4242,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603C0570-9030-4070-95B6-B1A347DD165B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4278,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE3CDB4-6D1C-449C-B713-6F923D46128E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4150,20 +4300,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51434</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483869</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvPr id="7" name="6 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4180,20 +4336,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvPr id="8" name="7 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4500,34 +4662,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.15625" style="1"/>
+    <col min="4" max="4" width="3.41796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.15625" style="1"/>
+    <col min="18" max="18" width="9.15625" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="9.140625" style="1"/>
+    <col min="29" max="31" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -4546,34 +4708,34 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -4586,7 +4748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4622,61 +4784,61 @@
       <c r="M2">
         <v>0.01</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <f>$A$25/M2</f>
-        <v>8.7964594300514211E-3</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O39" si="0">$A$7/M2</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="P2">
+        <v>5.4977871437821382E-4</v>
+      </c>
+      <c r="O2" s="4">
+        <f>$A$7/M2</f>
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="5">
         <f>(4*N2)/(PI()*$B$21^3)</f>
-        <v>1399.9999999999998</v>
-      </c>
-      <c r="Q2">
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="Q2" s="5">
         <f>(6*O2)/($B$2*$B$3^2)</f>
-        <v>2400</v>
-      </c>
-      <c r="R2">
+        <v>23999.999999999996</v>
+      </c>
+      <c r="R2" s="5">
         <f>$G$6*P2^($G$5-1)</f>
-        <v>107.97922941916292</v>
-      </c>
-      <c r="S2">
+        <v>52.513265856157517</v>
+      </c>
+      <c r="S2" s="5">
         <f>$G$6*Q2^($G$5-1)</f>
-        <v>81.586247159561026</v>
-      </c>
-      <c r="T2">
-        <f>((8*N2*G$6*P2^G$5)/(PI()*$B$21^4))/1000000</f>
-        <v>21163.928966155927</v>
-      </c>
-      <c r="U2">
-        <f>((12*O2*$B$4*G$6*Q2^(G$5))/($B$3^3*$B$2))/1000000</f>
-        <v>3759.4942691125734</v>
-      </c>
-      <c r="V2">
+        <v>24.638652747066057</v>
+      </c>
+      <c r="T2" s="5">
+        <f>((8*N2*$E$21)/(PI()*$B$21^4))/1000000</f>
+        <v>1289.7841828378555</v>
+      </c>
+      <c r="U2" s="5">
+        <f>((12*O2*$B$4*$F$9)/($B$3^3*$B$2))/1000000</f>
+        <v>518.70231397442512</v>
+      </c>
+      <c r="V2" s="5">
         <f>(T2+U2)*5</f>
-        <v>124617.1161763425</v>
+        <v>9042.4324840614026</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC39" si="1">LOG(I2)</f>
+        <f t="shared" ref="AC2:AC39" si="0">LOG(I2)</f>
         <v>-1</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD39" si="2">LOG(J2)</f>
+        <f t="shared" ref="AD2:AD39" si="1">LOG(J2)</f>
         <v>4.3439612145319231</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE39" si="3">LOG(K2)</f>
+        <f t="shared" ref="AE2:AE39" si="2">LOG(K2)</f>
         <v>4.1893268024084156</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -4694,66 +4856,66 @@
         <v>0.2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="4">F$2*($I3/F$4)^(F$5-1)</f>
+        <f t="shared" ref="J3:J12" si="3">F$2*($I3/F$4)^(F$5-1)</f>
         <v>15396.627997645121</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K10" si="5">G$2*($I3/G$4)^(G$5-1)</f>
+        <f t="shared" ref="K3:K10" si="4">G$2*($I3/G$4)^(G$5-1)</f>
         <v>10784.281227339001</v>
       </c>
       <c r="M3">
         <v>0.02</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <f>$A$25/M3</f>
-        <v>4.3982297150257105E-3</v>
-      </c>
-      <c r="O3">
+        <v>2.7488935718910691E-4</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O2:O39" si="5">$A$7/M3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P3" s="5">
+        <f>(4*N3)/(PI()*$B$21^3)</f>
+        <v>2799.9999999999995</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>(6*O3)/($B$2*$B$3^2)</f>
+        <v>11999.999999999998</v>
+      </c>
+      <c r="R3" s="5">
+        <f>$G$6*P3^($G$5-1)</f>
+        <v>75.301673164887418</v>
+      </c>
+      <c r="S3" s="5">
+        <f>$G$6*Q3^($G$5-1)</f>
+        <v>35.330725410694974</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T39" si="6">((8*N3*$E$21)/(PI()*$B$21^4))/1000000</f>
+        <v>644.89209141892775</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U39" si="7">((12*O3*$B$4*$F$9)/($B$3^3*$B$2))/1000000</f>
+        <v>259.35115698721256</v>
+      </c>
+      <c r="V3" s="5">
+        <f>(T3+U3)*5</f>
+        <v>4521.2162420307013</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="0"/>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="P3">
-        <f>(4*N3)/(PI()*$B$21^3)</f>
-        <v>699.99999999999989</v>
-      </c>
-      <c r="Q3">
-        <f>(6*O3)/($B$2*$B$3^2)</f>
-        <v>1200</v>
-      </c>
-      <c r="R3">
-        <f>$G$6*P3^($G$5-1)</f>
-        <v>154.8373827023137</v>
-      </c>
-      <c r="S3">
-        <f>$G$6*Q3^($G$5-1)</f>
-        <v>116.991027280369</v>
-      </c>
-      <c r="T3">
-        <f>((8*N3*G$6*P3^G$5)/(PI()*$B$21^4))/1000000</f>
-        <v>7587.0317524133698</v>
-      </c>
-      <c r="U3">
-        <f>((12*O3*$B$4*G$6*Q3^(G$5))/($B$3^3*$B$2))/1000000</f>
-        <v>1347.7366342698508</v>
-      </c>
-      <c r="V3">
-        <f>(T3+U3)*5</f>
-        <v>44673.841933416108</v>
-      </c>
-      <c r="AC3" s="1">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" si="1"/>
-        <v>-0.69897000433601875</v>
-      </c>
-      <c r="AD3" s="1">
+        <v>4.187425616786653</v>
+      </c>
+      <c r="AE3" s="1">
         <f t="shared" si="2"/>
-        <v>4.187425616786653</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" si="3"/>
         <v>4.0327912046631456</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4779,66 +4941,66 @@
         <v>0.3</v>
       </c>
       <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>12469.761929322467</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>12469.761929322467</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="5"/>
         <v>8734.2124200407288</v>
       </c>
       <c r="M4">
         <v>0.03</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N39" si="6">$A$25/M4</f>
-        <v>2.9321531433504737E-3</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N39" si="8">$A$25/M4</f>
+        <v>1.8325957145940461E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P39" si="9">(4*N4)/(PI()*$B$21^3)</f>
+        <v>1866.6666666666663</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q39" si="10">(6*O4)/($B$2*$B$3^2)</f>
+        <v>7999.9999999999991</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R39" si="11">$G$6*P4^($G$5-1)</f>
+        <v>92.976261767575096</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4:S39" si="12">$G$6*Q4^($G$5-1)</f>
+        <v>43.62344999997719</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="6"/>
+        <v>429.92806094595187</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="7"/>
+        <v>172.9007713248084</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4:V39" si="13">(T4+U4)*5</f>
+        <v>3014.1441613538013</v>
+      </c>
+      <c r="AC4" s="1">
         <f t="shared" si="0"/>
-        <v>3.333333333333334E-2</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P39" si="7">(4*N4)/(PI()*$B$21^3)</f>
-        <v>466.66666666666657</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q39" si="8">(6*O4)/($B$2*$B$3^2)</f>
-        <v>800</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R39" si="9">$G$6*P4^($G$5-1)</f>
-        <v>191.18036054807561</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S39" si="10">$G$6*Q4^($G$5-1)</f>
-        <v>144.45081921432185</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T39" si="11">((8*N4*G$6*P4^G$5)/(PI()*$B$21^4))/1000000</f>
-        <v>4163.4834074914215</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U39" si="12">((12*O4*$B$4*G$6*Q4^(G$5))/($B$3^3*$B$2))/1000000</f>
-        <v>739.58819437732768</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V39" si="13">(T4+U4)*5</f>
-        <v>24515.358009343745</v>
-      </c>
-      <c r="AC4" s="1">
+        <v>-0.52287874528033762</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.52287874528033762</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>4.0958581620776986</v>
+      </c>
+      <c r="AE4" s="1">
         <f t="shared" si="2"/>
-        <v>4.0958581620776986</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="3"/>
         <v>3.9412237499541911</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4852,66 +5014,66 @@
         <v>0.4</v>
       </c>
       <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>10737.174691434428</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>10737.174691434428</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="5"/>
         <v>7520.6539689863239</v>
       </c>
       <c r="M5">
         <v>0.04</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3744467859455345E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="9"/>
+        <v>1399.9999999999998</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="10"/>
+        <v>5999.9999999999991</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="11"/>
+        <v>107.97922941916292</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="12"/>
+        <v>50.662679118872191</v>
+      </c>
+      <c r="T5" s="5">
         <f t="shared" si="6"/>
-        <v>2.1991148575128553E-3</v>
-      </c>
-      <c r="O5">
+        <v>322.44604570946387</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="7"/>
+        <v>129.67557849360628</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="13"/>
+        <v>2260.6081210153507</v>
+      </c>
+      <c r="AC5" s="1">
         <f t="shared" si="0"/>
-        <v>2.5000000000000005E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>349.99999999999994</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="8"/>
-        <v>600</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="9"/>
-        <v>222.02987751501789</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="10"/>
-        <v>167.75989753944796</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="11"/>
-        <v>2719.8659995589678</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="12"/>
-        <v>483.14850491361011</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="13"/>
-        <v>16015.072522362889</v>
-      </c>
-      <c r="AC5" s="1">
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.3979400086720376</v>
-      </c>
-      <c r="AD5" s="1">
+        <v>4.0308900190413821</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="2"/>
-        <v>4.0308900190413821</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="3"/>
         <v>3.8762556069178751</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4930,69 +5092,69 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>9560.8567732230367</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>9560.8567732230367</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="5"/>
         <v>6696.7239990805829</v>
       </c>
       <c r="M6">
         <v>0.05</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0995574287564276E-4</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="9"/>
+        <v>1119.9999999999998</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="10"/>
+        <v>4800</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="11"/>
+        <v>121.26443025138929</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="12"/>
+        <v>56.895950743548262</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="6"/>
-        <v>1.7592918860102841E-3</v>
-      </c>
-      <c r="O6">
+        <v>257.95683656757114</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="7"/>
+        <v>103.74046279488502</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="13"/>
+        <v>1808.4864968122811</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>279.99999999999994</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="8"/>
-        <v>480</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="9"/>
-        <v>249.34727484604716</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="10"/>
-        <v>188.40019977529408</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="11"/>
-        <v>1954.8826347930087</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="12"/>
-        <v>347.25924822582203</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="13"/>
-        <v>11510.709415094154</v>
-      </c>
-      <c r="AC6" s="1">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.3010299956639812</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>3.9804968122771931</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="2"/>
-        <v>3.9804968122771931</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="3"/>
         <v>3.8258624001536856</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <f>B2*B3*B4</f>
-        <v>1.0000000000000002E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -5001,292 +5163,301 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>8696.0607359099613</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>8696.0607359099613</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="5"/>
         <v>6090.9937267054274</v>
       </c>
       <c r="M7">
         <v>0.06</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1629785729702303E-5</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="9"/>
+        <v>933.33333333333314</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="10"/>
+        <v>3999.9999999999995</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="11"/>
+        <v>133.32379850250766</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="12"/>
+        <v>62.554075064023316</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="6"/>
-        <v>1.4660765716752368E-3</v>
-      </c>
-      <c r="O7">
+        <v>214.96403047297594</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
+        <v>86.450385662404202</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="13"/>
+        <v>1507.0720806769007</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="0"/>
-        <v>1.666666666666667E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>233.33333333333329</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="9"/>
-        <v>274.14408132547106</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="10"/>
-        <v>207.13601029256233</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="11"/>
-        <v>1492.5622205497859</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="12"/>
-        <v>265.13409317447969</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="13"/>
-        <v>8788.4815686213278</v>
-      </c>
-      <c r="AC7" s="1">
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.22184874961635639</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>3.9393225643324281</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="2"/>
-        <v>3.9393225643324281</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="3"/>
         <v>3.7846881522089211</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="1">
         <v>0.7</v>
       </c>
       <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>8026.2047361589321</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>8026.2047361589321</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="5"/>
         <v>5621.8055717249799</v>
       </c>
       <c r="M8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8539816339744827E-5</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="9"/>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="10"/>
+        <v>3428.5714285714284</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="11"/>
+        <v>144.45081921432185</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="12"/>
+        <v>67.774752067406808</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="6"/>
-        <v>1.2566370614359172E-3</v>
-      </c>
-      <c r="O8">
+        <v>184.25488326255081</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="7"/>
+        <v>74.100330567775032</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="13"/>
+        <v>1291.7760691516291</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="0"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
-        <v>199.99999999999997</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="8"/>
-        <v>342.85714285714278</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="9"/>
-        <v>297.02376901208027</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="10"/>
-        <v>224.42329660284972</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="11"/>
-        <v>1188.0950760483206</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="12"/>
-        <v>211.04950015223085</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="13"/>
-        <v>6995.7228810027573</v>
-      </c>
-      <c r="AC8" s="1">
+        <v>-0.15490195998574319</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.15490195998574319</v>
-      </c>
-      <c r="AD8" s="1">
+        <v>3.9045102337245092</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="2"/>
-        <v>3.9045102337245092</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="3"/>
         <v>3.7498758216010022</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="1">
+        <f>F$2*($A14/F$4)^(F$5-1)</f>
+        <v>385.70153640684021</v>
+      </c>
+      <c r="F9" s="1">
+        <f>G$2*($A14/G$4)^(G$5-1)</f>
+        <v>270.15745519501314</v>
+      </c>
       <c r="I9" s="1">
         <v>0.8</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>7487.8031976880175</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>7487.8031976880175</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="5"/>
         <v>5244.6922450283555</v>
       </c>
       <c r="M9">
         <v>0.08</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8722339297276727E-5</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="9"/>
+        <v>699.99999999999989</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="10"/>
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="11"/>
+        <v>154.8373827023137</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="12"/>
+        <v>72.648014601048615</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="6"/>
-        <v>1.0995574287564276E-3</v>
-      </c>
-      <c r="O9">
+        <v>161.22302285473194</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="7"/>
+        <v>64.83778924680314</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="13"/>
+        <v>1130.3040605076753</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000002E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
-        <v>174.99999999999997</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="9"/>
-        <v>318.38090807897129</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="10"/>
-        <v>240.56018548328882</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="11"/>
-        <v>975.04153099184907</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="12"/>
-        <v>173.2033335479679</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="13"/>
-        <v>5741.224322699085</v>
-      </c>
-      <c r="AC9" s="1">
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="1"/>
-        <v>-9.6910013008056392E-2</v>
-      </c>
-      <c r="AD9" s="1">
+        <v>3.8743544212961121</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="2"/>
-        <v>3.8743544212961121</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="3"/>
         <v>3.719720009172605</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>1.0000000000000002E-3</v>
+        <f>A7</f>
+        <v>1E-4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3"/>
       <c r="I10" s="1">
         <v>0.9</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>7042.958179954162</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>7042.958179954162</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="5"/>
         <v>4933.1088402363303</v>
       </c>
       <c r="M10">
         <v>0.09</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1086523819801531E-5</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="9"/>
+        <v>622.22222222222206</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
+        <v>2666.6666666666661</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="11"/>
+        <v>164.61717075360713</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="12"/>
+        <v>77.236584704377464</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="6"/>
-        <v>9.7738438111682449E-4</v>
-      </c>
-      <c r="O10">
+        <v>143.30935364865061</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="7"/>
+        <v>57.633590441602792</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="13"/>
+        <v>1004.714720451267</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111111111111115E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
-        <v>155.55555555555551</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="8"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="9"/>
-        <v>338.49037871357211</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="10"/>
-        <v>255.75436912645648</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="11"/>
-        <v>819.06313861555736</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="12"/>
-        <v>145.49581888082864</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="13"/>
-        <v>4822.7947874819301</v>
-      </c>
-      <c r="AC10" s="1">
+        <v>-4.5757490560675115E-2</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5757490560675115E-2</v>
-      </c>
-      <c r="AD10" s="1">
+        <v>3.8477551096234737</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="2"/>
-        <v>3.8477551096234737</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="3"/>
         <v>3.6931206974999666</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1">
         <f>B2*B3</f>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6667.4722146681015</v>
       </c>
       <c r="K11" s="1">
@@ -5296,56 +5467,56 @@
       <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4977871437821378E-5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="9"/>
+        <v>559.99999999999989</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="11"/>
+        <v>173.88776615662897</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="12"/>
+        <v>81.586247159561026</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="6"/>
-        <v>8.7964594300514204E-4</v>
-      </c>
-      <c r="O11">
+        <v>128.97841828378557</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="7"/>
+        <v>51.87023139744251</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="13"/>
+        <v>904.24324840614054</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
-        <v>139.99999999999997</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="8"/>
-        <v>240</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="9"/>
-        <v>357.55283334393425</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="10"/>
-        <v>270.15745519501326</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="11"/>
-        <v>700.8035533541107</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="12"/>
-        <v>124.4885553538621</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="13"/>
-        <v>4126.4605435398644</v>
-      </c>
-      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
+        <v>3.8239612145319226</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="2"/>
-        <v>3.8239612145319226</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="3"/>
         <v>3.6693268024084156</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5356,13 +5527,11 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1">
-        <f>(12*$A$10*$B$4*F$6*$A14^(F$5))/($B3^3*$B2)</f>
-        <v>5885235.4087505871</v>
-      </c>
-      <c r="F12" s="1">
-        <f>(12*$A$10*$B$4*G$6*$A14^(G$5))/($B3^3*$B2)</f>
-        <v>4122203.4946071981</v>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>25</v>
@@ -5371,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4649.7073209878226</v>
       </c>
       <c r="K12" s="1">
@@ -5381,66 +5550,66 @@
       <c r="M12">
         <v>0.2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7488935718910689E-5</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="9"/>
+        <v>279.99999999999994</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="11"/>
+        <v>249.34727484604716</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="12"/>
+        <v>116.991027280369</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="6"/>
-        <v>4.3982297150257102E-4</v>
-      </c>
-      <c r="O12">
+        <v>64.489209141892786</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="7"/>
+        <v>25.935115698721255</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="13"/>
+        <v>452.12162420307027</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="0"/>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
-        <v>69.999999999999986</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="9"/>
-        <v>512.71476181646301</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="10"/>
-        <v>387.3937006674899</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="11"/>
-        <v>251.23023329006674</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="12"/>
-        <v>44.62775431689483</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="13"/>
-        <v>1479.2899380348078</v>
-      </c>
-      <c r="AC12" s="1">
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" si="1"/>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="AD12" s="1">
+        <v>3.6674256167866526</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="2"/>
-        <v>3.6674256167866526</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>3.5127912046631455</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <f>E12/1000000</f>
-        <v>5.8852354087505869</v>
+        <f>(12*$A$10*$B$4*E9)/($B3^3*$B2)</f>
+        <v>7405469.4990113322</v>
       </c>
       <c r="F13" s="1">
-        <f>F12/1000000</f>
-        <v>4.1222034946071977</v>
+        <f>(12*$A$10*$B$4*F9)/($B3^3*$B2)</f>
+        <v>5187023.139744252</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>23</v>
@@ -5459,62 +5628,70 @@
       <c r="M13">
         <v>0.3</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
+        <f t="shared" si="8"/>
+        <v>1.8325957145940463E-5</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333338E-4</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="9"/>
+        <v>186.66666666666666</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="11"/>
+        <v>307.87333830356096</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="12"/>
+        <v>144.45081921432185</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="6"/>
-        <v>2.932153143350474E-4</v>
-      </c>
-      <c r="O13">
+        <v>42.992806094595196</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="7"/>
+        <v>17.290077132480839</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="13"/>
+        <v>301.41441613538018</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="0"/>
-        <v>3.3333333333333344E-3</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>80.000000000000014</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="9"/>
-        <v>633.05767193730355</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="10"/>
-        <v>478.32161765517407</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="11"/>
-        <v>137.86589299967952</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="12"/>
-        <v>24.490066823944925</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="13"/>
-        <v>811.77979911812213</v>
-      </c>
-      <c r="AC13" s="1">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="1"/>
-        <v>0.47712125471966244</v>
-      </c>
-      <c r="AD13" s="1">
+        <v>3.5758581620776981</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="2"/>
-        <v>3.5758581620776981</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>3.4212237499541911</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <f>(6*A10)/(B2*B3^2)</f>
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E13/1000000</f>
+        <v>7.4054694990113319</v>
+      </c>
+      <c r="F14" s="1">
+        <f>F13/1000000</f>
+        <v>5.1870231397442517</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -5530,56 +5707,56 @@
       <c r="M14">
         <v>0.4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3744467859455344E-5</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="9"/>
+        <v>139.99999999999997</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="11"/>
+        <v>357.55283334393425</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="12"/>
+        <v>167.75989753944796</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="6"/>
-        <v>2.1991148575128551E-4</v>
-      </c>
-      <c r="O14">
+        <v>32.244604570946393</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="7"/>
+        <v>12.967557849360627</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="13"/>
+        <v>226.06081210153513</v>
+      </c>
+      <c r="AC14" s="1">
         <f t="shared" si="0"/>
-        <v>2.5000000000000005E-3</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
-        <v>34.999999999999993</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="9"/>
-        <v>735.21002344190197</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="10"/>
-        <v>555.50523012041981</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="11"/>
-        <v>90.063227871632961</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="12"/>
-        <v>15.998550627468084</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="13"/>
-        <v>530.30889249550523</v>
-      </c>
-      <c r="AC14" s="1">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="1"/>
-        <v>0.6020599913279624</v>
-      </c>
-      <c r="AD14" s="1">
+        <v>3.5108900190413821</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="2"/>
-        <v>3.5108900190413821</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>3.3562556069178751</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5597,56 +5774,56 @@
       <c r="M15">
         <v>0.5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0995574287564276E-5</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="9"/>
+        <v>111.99999999999999</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="11"/>
+        <v>401.54426785089998</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="12"/>
+        <v>188.40019977529408</v>
+      </c>
+      <c r="T15" s="5">
         <f t="shared" si="6"/>
-        <v>1.7592918860102842E-4</v>
-      </c>
-      <c r="O15">
+        <v>25.795683656757113</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="7"/>
+        <v>10.374046279488503</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="13"/>
+        <v>180.8486496812281</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="0"/>
-        <v>2.0000000000000005E-3</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="7"/>
-        <v>27.999999999999996</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="9"/>
-        <v>825.6664275839945</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="10"/>
-        <v>623.85169439137337</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="11"/>
-        <v>64.732247922585159</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="12"/>
-        <v>11.498834431021793</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="13"/>
-        <v>381.15541176803475</v>
-      </c>
-      <c r="AC15" s="1">
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="AD15" s="1">
+        <v>3.4604968122771931</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="2"/>
-        <v>3.4604968122771931</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>3.305862400153686</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5670,56 +5847,56 @@
       <c r="M16">
         <v>0.6</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1629785729702313E-6</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666669E-4</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="9"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="11"/>
+        <v>441.47658918454334</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="12"/>
+        <v>207.13601029256233</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" si="6"/>
-        <v>1.466076571675237E-4</v>
-      </c>
-      <c r="O16">
+        <v>21.496403047297598</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6450385662404194</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="13"/>
+        <v>150.70720806769009</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="0"/>
-        <v>1.6666666666666672E-3</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="7"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>40.000000000000007</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="9"/>
-        <v>907.77637097117861</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="10"/>
-        <v>685.89179387605691</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="11"/>
-        <v>49.42338019731973</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="12"/>
-        <v>8.7794149616135346</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="13"/>
-        <v>291.01397579466629</v>
-      </c>
-      <c r="AC16" s="1">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="AD16" s="1">
         <f t="shared" si="1"/>
-        <v>0.77815125038364363</v>
-      </c>
-      <c r="AD16" s="1">
+        <v>3.4193225643324281</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="2"/>
-        <v>3.4193225643324281</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="3"/>
         <v>3.2646881522089211</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -5744,56 +5921,56 @@
       <c r="M17">
         <v>0.7</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8539816339744837E-6</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714287E-4</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="10"/>
+        <v>342.85714285714283</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="11"/>
+        <v>478.32161765517429</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="12"/>
+        <v>224.42329660284972</v>
+      </c>
+      <c r="T17" s="5">
         <f t="shared" si="6"/>
-        <v>1.2566370614359174E-4</v>
-      </c>
-      <c r="O17">
+        <v>18.425488326255078</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="7"/>
+        <v>7.4100330567775021</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="13"/>
+        <v>129.1776069151629</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="0"/>
-        <v>1.428571428571429E-3</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="9"/>
-        <v>983.53813739956229</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="10"/>
-        <v>743.13537890921816</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="11"/>
-        <v>39.341525495982488</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="12"/>
-        <v>6.988505767374849</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="13"/>
-        <v>231.65015631678668</v>
-      </c>
-      <c r="AC17" s="1">
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="AD17" s="1">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
-      </c>
-      <c r="AD17" s="1">
+        <v>3.3845102337245092</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="2"/>
-        <v>3.3845102337245092</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="3"/>
         <v>3.2298758216010022</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="1">
         <v>8</v>
       </c>
@@ -5808,56 +5985,56 @@
       <c r="M18">
         <v>0.8</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8722339297276722E-6</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="5"/>
+        <v>1.25E-4</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="9"/>
+        <v>69.999999999999986</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="11"/>
+        <v>512.71476181646301</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="12"/>
+        <v>240.56018548328882</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="6"/>
-        <v>1.0995574287564276E-4</v>
-      </c>
-      <c r="O18">
+        <v>16.122302285473197</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="7"/>
+        <v>6.4837789246803137</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="13"/>
+        <v>113.03040605076757</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000002E-3</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="7"/>
-        <v>17.499999999999996</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="9"/>
-        <v>1054.2582715083549</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="10"/>
-        <v>796.5696400314157</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="11"/>
-        <v>32.286659564943363</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="12"/>
-        <v>5.7353014082261939</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="13"/>
-        <v>190.10980486584776</v>
-      </c>
-      <c r="AC18" s="1">
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AD18" s="1">
         <f t="shared" si="1"/>
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="AD18" s="1">
+        <v>3.3543544212961121</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="2"/>
-        <v>3.3543544212961121</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="3"/>
         <v>3.199720009172605</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="1">
         <v>9</v>
       </c>
@@ -5872,56 +6049,56 @@
       <c r="M19">
         <v>0.9</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1086523819801531E-6</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112E-4</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="9"/>
+        <v>62.222222222222207</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="10"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="11"/>
+        <v>545.09868366933108</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="12"/>
+        <v>255.75436912645648</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="6"/>
-        <v>9.7738438111682449E-5</v>
-      </c>
-      <c r="O19">
+        <v>14.330935364865063</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="7"/>
+        <v>5.7633590441602811</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="13"/>
+        <v>100.47147204512672</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111111111111113E-3</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="7"/>
-        <v>15.555555555555552</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="9"/>
-        <v>1120.8469871449215</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="10"/>
-        <v>846.8823107291613</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="11"/>
-        <v>27.121729565482042</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="12"/>
-        <v>4.8178193677036711</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="13"/>
-        <v>159.69774466592855</v>
-      </c>
-      <c r="AC19" s="1">
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" si="1"/>
-        <v>0.95424250943932487</v>
-      </c>
-      <c r="AD19" s="1">
+        <v>3.3277551096234737</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="2"/>
-        <v>3.3277551096234737</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" si="3"/>
         <v>3.1731206974999666</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -5942,68 +6119,68 @@
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4977871437821381E-6</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="5"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="9"/>
+        <v>55.999999999999993</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="11"/>
+        <v>575.79651019547123</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="12"/>
+        <v>270.15745519501326</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="6"/>
-        <v>8.796459430051421E-5</v>
-      </c>
-      <c r="O20">
+        <v>12.897841828378557</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1870231397442517</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="13"/>
+        <v>90.424324840614048</v>
+      </c>
+      <c r="AC20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-3</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="7"/>
-        <v>13.999999999999998</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="9"/>
-        <v>1183.9687069445492</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="10"/>
-        <v>894.5754111560758</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="11"/>
-        <v>23.205786656113158</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="12"/>
-        <v>4.1222034946071977</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="13"/>
-        <v>136.63995075360179</v>
-      </c>
-      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD20" s="1">
+        <v>3.3039612145319226</v>
+      </c>
+      <c r="AE20" s="1">
         <f t="shared" si="2"/>
-        <v>3.3039612145319226</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="3"/>
         <v>3.1493268024084156</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1">
         <f>G6*A32^(G5-1)</f>
-        <v>1183.9687069445492</v>
+        <v>575.79651019547123</v>
       </c>
       <c r="I21" s="1">
         <v>20</v>
@@ -6019,56 +6196,56 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7488935718910691E-6</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="9"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="11"/>
+        <v>825.6664275839945</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="12"/>
+        <v>387.3937006674899</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="6"/>
-        <v>4.3982297150257105E-5</v>
-      </c>
-      <c r="O21">
+        <v>6.4489209141892783</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5935115698721258</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="13"/>
+        <v>45.212162420307024</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000012E-4</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="9"/>
-        <v>1697.7581408096494</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="10"/>
-        <v>1282.7811055731715</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="11"/>
-        <v>8.3190148899672796</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="12"/>
-        <v>1.4777638336202938</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="13"/>
-        <v>48.983893617937866</v>
-      </c>
-      <c r="AC21" s="1">
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="AD21" s="1">
         <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="AD21" s="1">
+        <v>3.1474256167866526</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="2"/>
-        <v>3.1474256167866526</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="3"/>
         <v>2.9927912046631455</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -6092,56 +6269,56 @@
       <c r="M22">
         <v>3</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
+        <v>1.832595714594046E-6</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="9"/>
+        <v>18.666666666666664</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="11"/>
+        <v>1019.4644378704733</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="12"/>
+        <v>478.32161765517429</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="6"/>
-        <v>2.9321531433504735E-5</v>
-      </c>
-      <c r="O22">
+        <v>4.2992806094595188</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7290077132480841</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="13"/>
+        <v>30.141441613538014</v>
+      </c>
+      <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>3.3333333333333343E-4</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="7"/>
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="9"/>
-        <v>2096.2509687175761</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="10"/>
-        <v>1583.87173683525</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="11"/>
-        <v>4.5651687763182762</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="12"/>
-        <v>0.81094232925964782</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="13"/>
-        <v>26.880555527889619</v>
-      </c>
-      <c r="AC22" s="1">
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="AD22" s="1">
         <f t="shared" si="1"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="AD22" s="1">
+        <v>3.0558581620776981</v>
+      </c>
+      <c r="AE22" s="1">
         <f t="shared" si="2"/>
-        <v>3.0558581620776981</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="3"/>
         <v>2.9012237499541911</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
@@ -6159,62 +6336,62 @@
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3744467859455345E-6</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="9"/>
+        <v>13.999999999999998</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="11"/>
+        <v>1183.9687069445492</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="12"/>
+        <v>555.50523012041981</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="6"/>
-        <v>2.1991148575128552E-5</v>
-      </c>
-      <c r="O23">
+        <v>3.2244604570946391</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2967557849360629</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="13"/>
+        <v>22.606081210153512</v>
+      </c>
+      <c r="AC23" s="1">
         <f t="shared" si="0"/>
-        <v>2.5000000000000006E-4</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="7"/>
-        <v>3.4999999999999996</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="9"/>
-        <v>2434.5091958755911</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="10"/>
-        <v>1839.4506983921945</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="11"/>
-        <v>2.9822737649475979</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="12"/>
-        <v>0.52976180113695215</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="13"/>
-        <v>17.560177830422749</v>
-      </c>
-      <c r="AC23" s="1">
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="AD23" s="1">
         <f t="shared" si="1"/>
-        <v>1.6020599913279623</v>
-      </c>
-      <c r="AD23" s="1">
+        <v>2.9908900190413821</v>
+      </c>
+      <c r="AE23" s="1">
         <f t="shared" si="2"/>
-        <v>2.9908900190413821</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="3"/>
         <v>2.836255606917875</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1">
-        <f>(8*$A$28*G$6*$A32^G$5)/(PI()*B21^4)</f>
-        <v>23205786.656113159</v>
+        <f>(8*$A$28*E21)/(PI()*B21^4)</f>
+        <v>12897841.828378556</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
@@ -6233,66 +6410,66 @@
       <c r="M24">
         <v>5</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0995574287564277E-6</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="9"/>
+        <v>11.2</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="11"/>
+        <v>1329.6380373837446</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="12"/>
+        <v>623.85169439137337</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="6"/>
-        <v>1.7592918860102843E-5</v>
-      </c>
-      <c r="O24">
+        <v>2.5795683656757116</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0374046279488505</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="13"/>
+        <v>18.084864968122808</v>
+      </c>
+      <c r="AC24" s="1">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-4</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="7"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>4.7999999999999989</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="9"/>
-        <v>2734.0385013641271</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="10"/>
-        <v>2065.7671120263012</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="11"/>
-        <v>2.1434861850694755</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="12"/>
-        <v>0.38076219408868778</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="13"/>
-        <v>12.621241895790815</v>
-      </c>
-      <c r="AC24" s="1">
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="AD24" s="1">
         <f t="shared" si="1"/>
-        <v>1.6989700043360187</v>
-      </c>
-      <c r="AD24" s="1">
+        <v>2.9404968122771931</v>
+      </c>
+      <c r="AE24" s="1">
         <f t="shared" si="2"/>
-        <v>2.9404968122771931</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="3"/>
         <v>2.785862400153686</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <f>PI()*B21^2*B22</f>
-        <v>8.796459430051421E-5</v>
+        <v>5.4977871437821381E-6</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="1">
         <f>E24/1000000</f>
-        <v>23.205786656113158</v>
+        <v>12.897841828378557</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>22</v>
@@ -6311,56 +6488,56 @@
       <c r="M25">
         <v>6</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1629785729702298E-7</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667E-5</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="9"/>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="11"/>
+        <v>1461.8663808498704</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="12"/>
+        <v>685.89179387605725</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="6"/>
-        <v>1.4660765716752368E-5</v>
-      </c>
-      <c r="O25">
+        <v>2.1496403047297594</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="7"/>
+        <v>0.86450385662404206</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="13"/>
+        <v>15.070720806769007</v>
+      </c>
+      <c r="AC25" s="1">
         <f t="shared" si="0"/>
-        <v>1.6666666666666672E-4</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="7"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="9"/>
-        <v>3005.9300777508302</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="10"/>
-        <v>2271.2011892188498</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="11"/>
-        <v>1.6365619312198962</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="12"/>
-        <v>0.29071375222001278</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="13"/>
-        <v>9.6363784171995448</v>
-      </c>
-      <c r="AC25" s="1">
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="AD25" s="1">
         <f t="shared" si="1"/>
-        <v>1.7781512503836436</v>
-      </c>
-      <c r="AD25" s="1">
+        <v>2.8993225643324281</v>
+      </c>
+      <c r="AE25" s="1">
         <f t="shared" si="2"/>
-        <v>2.8993225643324281</v>
-      </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="3"/>
         <v>2.744688152208921</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="1">
         <v>70</v>
       </c>
@@ -6375,56 +6552,56 @@
       <c r="M26">
         <v>7</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8539816339744833E-7</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714287E-5</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="9"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="10"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="11"/>
+        <v>1583.87173683525</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="12"/>
+        <v>743.13537890921816</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" si="6"/>
-        <v>1.2566370614359173E-5</v>
-      </c>
-      <c r="O26">
+        <v>1.8425488326255082</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7410033056777503</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="13"/>
+        <v>12.917760691516293</v>
+      </c>
+      <c r="AC26" s="1">
         <f t="shared" si="0"/>
-        <v>1.4285714285714289E-4</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="7"/>
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="9"/>
-        <v>3256.8008645801583</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="10"/>
-        <v>2460.752514315996</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="11"/>
-        <v>1.3027203458320631</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="12"/>
-        <v>0.23141117522383897</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="13"/>
-        <v>7.6706576052795103</v>
-      </c>
-      <c r="AC26" s="1">
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="AD26" s="1">
         <f t="shared" si="1"/>
-        <v>1.8450980400142569</v>
-      </c>
-      <c r="AD26" s="1">
+        <v>2.8645102337245092</v>
+      </c>
+      <c r="AE26" s="1">
         <f t="shared" si="2"/>
-        <v>2.8645102337245092</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="3"/>
         <v>2.7098758216010022</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -6442,59 +6619,59 @@
       <c r="M27">
         <v>8</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8722339297276726E-7</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="9"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="11"/>
+        <v>1697.7581408096494</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="12"/>
+        <v>796.5696400314157</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="6"/>
-        <v>1.0995574287564276E-5</v>
-      </c>
-      <c r="O27">
+        <v>1.6122302285473196</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="7"/>
+        <v>0.64837789246803146</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" si="13"/>
+        <v>11.303040605076756</v>
+      </c>
+      <c r="AC27" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000003E-4</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="7"/>
-        <v>1.7499999999999998</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="9"/>
-        <v>3490.9772377685954</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="10"/>
-        <v>2637.6899824258658</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="11"/>
-        <v>1.069111779066632</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="12"/>
-        <v>0.18991367873466239</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="13"/>
-        <v>6.2951272890064729</v>
-      </c>
-      <c r="AC27" s="1">
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="AD27" s="1">
         <f t="shared" si="1"/>
-        <v>1.9030899869919435</v>
-      </c>
-      <c r="AD27" s="1">
+        <v>2.834354421296112</v>
+      </c>
+      <c r="AE27" s="1">
         <f t="shared" si="2"/>
-        <v>2.834354421296112</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="3"/>
         <v>2.679720009172605</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <f>A25</f>
-        <v>8.796459430051421E-5</v>
+        <v>5.4977871437821381E-6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
@@ -6516,66 +6693,66 @@
       <c r="M28">
         <v>9</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1086523819801539E-7</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112E-5</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="10"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="11"/>
+        <v>1804.991384421098</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="12"/>
+        <v>846.8823107291613</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="6"/>
-        <v>9.7738438111682463E-6</v>
-      </c>
-      <c r="O28">
+        <v>1.4330935364865063</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="7"/>
+        <v>0.576335904416028</v>
+      </c>
+      <c r="V28" s="6">
+        <f t="shared" si="13"/>
+        <v>10.047147204512672</v>
+      </c>
+      <c r="AC28" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111111111111114E-4</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="7"/>
-        <v>1.5555555555555554</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="9"/>
-        <v>3711.4731986368124</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="10"/>
-        <v>2804.2908931551533</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="11"/>
-        <v>0.89808487275656201</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="12"/>
-        <v>0.15953299303282648</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="13"/>
-        <v>5.2880893289469419</v>
-      </c>
-      <c r="AC28" s="1">
+        <v>1.954242509439325</v>
+      </c>
+      <c r="AD28" s="1">
         <f t="shared" si="1"/>
-        <v>1.954242509439325</v>
-      </c>
-      <c r="AD28" s="1">
+        <v>2.8077551096234741</v>
+      </c>
+      <c r="AE28" s="1">
         <f t="shared" si="2"/>
-        <v>2.8077551096234741</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="3"/>
         <v>2.6531206974999666</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1">
         <f>PI()*B21^2</f>
-        <v>1.2566370614359172E-3</v>
+        <v>7.8539816339744827E-5</v>
       </c>
       <c r="E29" s="1">
-        <f>E25*5+E13*5</f>
-        <v>145.45511032431872</v>
+        <f>E25*5+F14*5</f>
+        <v>90.424324840614048</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>23</v>
@@ -6594,56 +6771,56 @@
       <c r="M29">
         <v>10</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4977871437821385E-7</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="9"/>
+        <v>5.6</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="11"/>
+        <v>1906.6414416678851</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="12"/>
+        <v>894.5754111560758</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="6"/>
-        <v>8.7964594300514217E-6</v>
-      </c>
-      <c r="O29">
+        <v>1.2897841828378558</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="7"/>
+        <v>0.51870231397442523</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" si="13"/>
+        <v>9.0424324840614041</v>
+      </c>
+      <c r="AC29" s="1">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-4</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="7"/>
-        <v>1.4</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>2.3999999999999995</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="9"/>
-        <v>3920.4888573084181</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="10"/>
-        <v>2962.217591468614</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="11"/>
-        <v>0.76841581603244991</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="12"/>
-        <v>0.13649898661487372</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="13"/>
-        <v>4.5245740132366183</v>
-      </c>
-      <c r="AC29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD29" s="1">
+        <v>2.7839612145319226</v>
+      </c>
+      <c r="AE29" s="1">
         <f t="shared" si="2"/>
-        <v>2.7839612145319226</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="3"/>
         <v>2.6293268024084155</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -6654,9 +6831,6 @@
       <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="1">
-        <v>430.911</v>
-      </c>
       <c r="I30" s="1">
         <v>200</v>
       </c>
@@ -6671,56 +6845,56 @@
       <c r="M30">
         <v>20</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7488935718910693E-7</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="9"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="11"/>
+        <v>2734.0385013641271</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="12"/>
+        <v>1282.7811055731715</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="6"/>
-        <v>4.3982297150257108E-6</v>
-      </c>
-      <c r="O30">
+        <v>0.64489209141892789</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.25935115698721262</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" si="13"/>
+        <v>4.521216242030702</v>
+      </c>
+      <c r="AC30" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000009E-5</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>1.1999999999999997</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="9"/>
-        <v>5621.8055717249808</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="10"/>
-        <v>4247.6874610512241</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="11"/>
-        <v>0.27546847301452404</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="12"/>
-        <v>4.8933359551310091E-2</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="13"/>
-        <v>1.6220091628291704</v>
-      </c>
-      <c r="AC30" s="1">
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="AD30" s="1">
         <f t="shared" si="1"/>
-        <v>2.3010299956639813</v>
-      </c>
-      <c r="AD30" s="1">
+        <v>2.6274256167866525</v>
+      </c>
+      <c r="AE30" s="1">
         <f t="shared" si="2"/>
-        <v>2.6274256167866525</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="3"/>
         <v>2.4727912046631455</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -6738,59 +6912,59 @@
       <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
+        <f t="shared" si="8"/>
+        <v>1.8325957145940459E-7</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-6</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8666666666666663</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="10"/>
+        <v>7.9999999999999982</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="11"/>
+        <v>3375.7640262366913</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="12"/>
+        <v>1583.87173683525</v>
+      </c>
+      <c r="T31" s="5">
         <f t="shared" si="6"/>
-        <v>2.9321531433504735E-6</v>
-      </c>
-      <c r="O31">
+        <v>0.42992806094595187</v>
+      </c>
+      <c r="U31" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17290077132480836</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="13"/>
+        <v>3.0141441613538014</v>
+      </c>
+      <c r="AC31" s="1">
         <f t="shared" si="0"/>
-        <v>3.3333333333333342E-5</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="7"/>
-        <v>0.46666666666666656</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="9"/>
-        <v>6941.3393418041906</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="10"/>
-        <v>5244.6922450283573</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="11"/>
-        <v>0.15116694566595787</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>2.6852824294545181E-2</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="13"/>
-        <v>0.8900988498025153</v>
-      </c>
-      <c r="AC31" s="1">
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>2.4771212547196626</v>
-      </c>
-      <c r="AD31" s="1">
+        <v>2.5358581620776981</v>
+      </c>
+      <c r="AE31" s="1">
         <f t="shared" si="2"/>
-        <v>2.5358581620776981</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="3"/>
         <v>2.3812237499541911</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <f>(4*A25)/(PI()*B21^3)</f>
-        <v>13.999999999999998</v>
+        <v>55.999999999999993</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -6809,56 +6983,56 @@
       <c r="M32">
         <v>40</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3744467859455346E-7</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="11"/>
+        <v>3920.4888573084181</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="12"/>
+        <v>1839.4506983921945</v>
+      </c>
+      <c r="T32" s="5">
         <f t="shared" si="6"/>
-        <v>2.1991148575128554E-6</v>
-      </c>
-      <c r="O32">
+        <v>0.32244604570946395</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12967557849360631</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" si="13"/>
+        <v>2.260608121015351</v>
+      </c>
+      <c r="AC32" s="1">
         <f t="shared" si="0"/>
-        <v>2.5000000000000005E-5</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="7"/>
-        <v>0.35</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="9"/>
-        <v>8061.4176028996535</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="10"/>
-        <v>6090.9937267054283</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>9.8752365635520756E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="12"/>
-        <v>1.7542061932911624E-2</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="13"/>
-        <v>0.5814721378421619</v>
-      </c>
-      <c r="AC32" s="1">
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="AD32" s="1">
         <f t="shared" si="1"/>
-        <v>2.6020599913279625</v>
-      </c>
-      <c r="AD32" s="1">
+        <v>2.4708900190413821</v>
+      </c>
+      <c r="AE32" s="1">
         <f t="shared" si="2"/>
-        <v>2.4708900190413821</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="3"/>
         <v>2.316255606917875</v>
       </c>
     </row>
-    <row r="33" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="1">
         <v>500</v>
       </c>
@@ -6873,56 +7047,56 @@
       <c r="M33">
         <v>50</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0995574287564277E-7</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="10"/>
+        <v>4.8</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="11"/>
+        <v>4402.8453448479067</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="12"/>
+        <v>2065.7671120263012</v>
+      </c>
+      <c r="T33" s="5">
         <f t="shared" si="6"/>
-        <v>1.7592918860102843E-6</v>
-      </c>
-      <c r="O33">
+        <v>0.25795683656757118</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10374046279488504</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" si="13"/>
+        <v>1.8084864968122809</v>
+      </c>
+      <c r="AC33" s="1">
         <f t="shared" si="0"/>
-        <v>2.0000000000000005E-5</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="7"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>0.48</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="9"/>
-        <v>9053.2523513328615</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="10"/>
-        <v>6840.3978052712255</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>7.0977498434449615E-2</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="12"/>
-        <v>1.2608221234675922E-2</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="13"/>
-        <v>0.41792859834562768</v>
-      </c>
-      <c r="AC33" s="1">
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="AD33" s="1">
         <f t="shared" si="1"/>
-        <v>2.6989700043360187</v>
-      </c>
-      <c r="AD33" s="1">
+        <v>2.420496812277193</v>
+      </c>
+      <c r="AE33" s="1">
         <f t="shared" si="2"/>
-        <v>2.420496812277193</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="3"/>
         <v>2.265862400153686</v>
       </c>
     </row>
-    <row r="34" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="1">
         <v>600</v>
       </c>
@@ -6937,56 +7111,56 @@
       <c r="M34">
         <v>60</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1629785729702296E-8</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667E-6</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="9"/>
+        <v>0.93333333333333313</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="10"/>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="11"/>
+        <v>4840.6945414851425</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="12"/>
+        <v>2271.2011892188498</v>
+      </c>
+      <c r="T34" s="5">
         <f t="shared" si="6"/>
-        <v>1.4660765716752367E-6</v>
-      </c>
-      <c r="O34">
+        <v>0.21496403047297594</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6450385662404178E-2</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="13"/>
+        <v>1.5070720806769007</v>
+      </c>
+      <c r="AC34" s="1">
         <f t="shared" si="0"/>
-        <v>1.6666666666666671E-5</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="7"/>
-        <v>0.23333333333333328</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="9"/>
-        <v>9953.5699774388468</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="10"/>
-        <v>7520.6539689863248</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="11"/>
-        <v>5.4191658766055938E-2</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>9.6264370803024919E-3</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="13"/>
-        <v>0.31909047923179218</v>
-      </c>
-      <c r="AC34" s="1">
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="AD34" s="1">
         <f t="shared" si="1"/>
-        <v>2.7781512503836434</v>
-      </c>
-      <c r="AD34" s="1">
+        <v>2.3793225643324281</v>
+      </c>
+      <c r="AE34" s="1">
         <f t="shared" si="2"/>
-        <v>2.3793225643324281</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="3"/>
         <v>2.224688152208921</v>
       </c>
     </row>
-    <row r="35" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="1">
         <v>700</v>
       </c>
@@ -7001,56 +7175,56 @@
       <c r="M35">
         <v>70</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8539816339744831E-8</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286E-6</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="10"/>
+        <v>3.4285714285714288</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="11"/>
+        <v>5244.6922450283573</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="12"/>
+        <v>2460.752514315996</v>
+      </c>
+      <c r="T35" s="5">
         <f t="shared" si="6"/>
-        <v>1.2566370614359173E-6</v>
-      </c>
-      <c r="O35">
+        <v>0.18425488326255079</v>
+      </c>
+      <c r="U35" s="5">
+        <f t="shared" si="7"/>
+        <v>7.4100330567775027E-2</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="13"/>
+        <v>1.2917760691516291</v>
+      </c>
+      <c r="AC35" s="1">
         <f t="shared" si="0"/>
-        <v>1.4285714285714289E-5</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="7"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>0.3428571428571428</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="9"/>
-        <v>10784.281227339001</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="10"/>
-        <v>8148.3173975656173</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="11"/>
-        <v>4.3137124909356013E-2</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="12"/>
-        <v>7.6627441975474185E-3</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="13"/>
-        <v>0.25399934553451714</v>
-      </c>
-      <c r="AC35" s="1">
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="AD35" s="1">
         <f t="shared" si="1"/>
-        <v>2.8450980400142569</v>
-      </c>
-      <c r="AD35" s="1">
+        <v>2.3445102337245092</v>
+      </c>
+      <c r="AE35" s="1">
         <f t="shared" si="2"/>
-        <v>2.3445102337245092</v>
-      </c>
-      <c r="AE35" s="1">
-        <f t="shared" si="3"/>
         <v>2.1898758216010021</v>
       </c>
     </row>
-    <row r="36" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="1">
         <v>800</v>
       </c>
@@ -7065,56 +7239,56 @@
       <c r="M36">
         <v>80</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8722339297276732E-8</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-6</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="11"/>
+        <v>5621.8055717249808</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="12"/>
+        <v>2637.6899824258658</v>
+      </c>
+      <c r="T36" s="5">
         <f t="shared" si="6"/>
-        <v>1.0995574287564277E-6</v>
-      </c>
-      <c r="O36">
+        <v>0.16122302285473197</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="7"/>
+        <v>6.4837789246803154E-2</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="13"/>
+        <v>1.1303040605076755</v>
+      </c>
+      <c r="AC36" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000002E-5</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="7"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
-        <v>11559.712078125131</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
-        <v>8734.2124200407306</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="11"/>
-        <v>3.5401618239258213E-2</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="12"/>
-        <v>6.2886329424293244E-3</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="13"/>
-        <v>0.20845125590843769</v>
-      </c>
-      <c r="AC36" s="1">
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="1"/>
-        <v>2.9030899869919438</v>
-      </c>
-      <c r="AD36" s="1">
+        <v>2.314354421296112</v>
+      </c>
+      <c r="AE36" s="1">
         <f t="shared" si="2"/>
-        <v>2.314354421296112</v>
-      </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="3"/>
         <v>2.159720009172605</v>
       </c>
     </row>
-    <row r="37" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="1">
         <v>900</v>
       </c>
@@ -7129,56 +7303,56 @@
       <c r="M37">
         <v>90</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1086523819801539E-8</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112E-6</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="9"/>
+        <v>0.62222222222222212</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="10"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" si="11"/>
+        <v>5976.8882138977278</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" si="12"/>
+        <v>2804.2908931551533</v>
+      </c>
+      <c r="T37" s="5">
         <f t="shared" si="6"/>
-        <v>9.7738438111682463E-7</v>
-      </c>
-      <c r="O37">
+        <v>0.14330935364865063</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="7"/>
+        <v>5.7633590441602801E-2</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" si="13"/>
+        <v>1.0047147204512672</v>
+      </c>
+      <c r="AC37" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111111111111113E-5</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="7"/>
-        <v>0.15555555555555553</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
-        <v>12289.842826171875</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
-        <v>9285.8798841388325</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="11"/>
-        <v>2.973838511024305E-2</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="12"/>
-        <v>5.2826338896434224E-3</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="13"/>
-        <v>0.17510509499943236</v>
-      </c>
-      <c r="AC37" s="1">
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="AD37" s="1">
         <f t="shared" si="1"/>
-        <v>2.9542425094393248</v>
-      </c>
-      <c r="AD37" s="1">
+        <v>2.2877551096234736</v>
+      </c>
+      <c r="AE37" s="1">
         <f t="shared" si="2"/>
-        <v>2.2877551096234736</v>
-      </c>
-      <c r="AE37" s="1">
-        <f t="shared" si="3"/>
         <v>2.1331206974999666</v>
       </c>
     </row>
-    <row r="38" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="1">
         <v>1000</v>
       </c>
@@ -7193,56 +7367,56 @@
       <c r="M38">
         <v>100</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4977871437821384E-8</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="9"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="11"/>
+        <v>6313.4831884467112</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" si="12"/>
+        <v>2962.217591468614</v>
+      </c>
+      <c r="T38" s="5">
         <f t="shared" si="6"/>
-        <v>8.7964594300514214E-7</v>
-      </c>
-      <c r="O38">
+        <v>0.12897841828378559</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1870231397442519E-2</v>
+      </c>
+      <c r="V38" s="6">
+        <f t="shared" si="13"/>
+        <v>0.90424324840614045</v>
+      </c>
+      <c r="AC38" s="1">
         <f t="shared" si="0"/>
-        <v>1.0000000000000003E-5</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="7"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>0.24</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
-        <v>12981.958720805385</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
-        <v>9808.8243313846233</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="11"/>
-        <v>2.544463909277855E-2</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="12"/>
-        <v>4.5199062519020328E-3</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="13"/>
-        <v>0.14982272672340291</v>
-      </c>
-      <c r="AC38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD38" s="1">
+        <v>2.263961214531923</v>
+      </c>
+      <c r="AE38" s="1">
         <f t="shared" si="2"/>
-        <v>2.263961214531923</v>
-      </c>
-      <c r="AE38" s="1">
-        <f t="shared" si="3"/>
         <v>2.1093268024084155</v>
       </c>
     </row>
-    <row r="39" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="1">
         <v>2000</v>
       </c>
@@ -7257,52 +7431,52 @@
       <c r="M39">
         <v>200</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7488935718910692E-8</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="9"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" si="11"/>
+        <v>9053.2523513328615</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="12"/>
+        <v>4247.6874610512241</v>
+      </c>
+      <c r="T39" s="5">
         <f t="shared" si="6"/>
-        <v>4.3982297150257107E-7</v>
-      </c>
-      <c r="O39">
+        <v>6.4489209141892795E-2</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" si="7"/>
+        <v>2.593511569872126E-2</v>
+      </c>
+      <c r="V39" s="6">
+        <f t="shared" si="13"/>
+        <v>0.45212162420307023</v>
+      </c>
+      <c r="AC39" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000013E-6</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>0.12</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="9"/>
-        <v>18615.547837223719</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="10"/>
-        <v>14065.415126854316</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="11"/>
-        <v>9.1216184402396188E-3</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="12"/>
-        <v>1.6203358226136175E-3</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="13"/>
-        <v>5.3709771314266186E-2</v>
-      </c>
-      <c r="AC39" s="1">
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="AD39" s="1">
         <f t="shared" si="1"/>
-        <v>3.3010299956639813</v>
-      </c>
-      <c r="AD39" s="1">
+        <v>2.1074256167866525</v>
+      </c>
+      <c r="AE39" s="1">
         <f t="shared" si="2"/>
-        <v>2.1074256167866525</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" si="3"/>
         <v>1.9527912046631455</v>
       </c>
     </row>
